--- a/df_list_20250107.xlsx
+++ b/df_list_20250107.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="232">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -514,16 +514,215 @@
   </si>
   <si>
     <t>대가 척정3지구 급경사지 붕괴위험지역 정비사업 신기술・특허공법 선정위원회 평가 결과 공고</t>
+  </si>
+  <si>
+    <t>A047</t>
+  </si>
+  <si>
+    <t>경기도_김포시</t>
+  </si>
+  <si>
+    <t>https://www.gimpo.go.kr/portal/ntfcPblancList.do?key=1004&amp;cate_cd=1&amp;searchCnd=40900000000&amp;pageUnit=90</t>
+  </si>
+  <si>
+    <t>A101</t>
+  </si>
+  <si>
+    <t>충청도_보은군</t>
+  </si>
+  <si>
+    <t>https://www.boeun.go.kr/www/selectBbsNttList.do?bbsNo=66&amp;key=194&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>2025년 1분기 도로관리심의회(도로굴착사업) 접수 안내 공고</t>
+  </si>
+  <si>
+    <t>A105</t>
+  </si>
+  <si>
+    <t>충청도_증평군</t>
+  </si>
+  <si>
+    <t>http://eminwon.jp.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,03,04,06&amp;list_gubun=A</t>
+  </si>
+  <si>
+    <t>2025년 증평군 좌구산휴양랜드 산림교육 위탁운영 사업제안서 평가위원 모...</t>
+  </si>
+  <si>
+    <t>A175</t>
+  </si>
+  <si>
+    <t>경상도_울진군</t>
+  </si>
+  <si>
+    <t>https://www.uljin.go.kr/index.uljin?menuCd=DOM_000000103002007000</t>
+  </si>
+  <si>
+    <t>『울진 왕피천공원 리노베이션 기본 및 실시설계용역』 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>A014</t>
+  </si>
+  <si>
+    <t>전북도로관리사업소</t>
+  </si>
+  <si>
+    <t>https://www.jeonbuk.go.kr/board/list.jeonbuk?boardId=BBS_0000129&amp;menuCd=DOM_000000102002005000&amp;contentsSid=1379&amp;cpath=&amp;startPage=1</t>
+  </si>
+  <si>
+    <t>삼계~오수 지방도 확포장공사 실시설계용역 특정공법 기술제안서 제출 안내 재공고</t>
+  </si>
+  <si>
+    <t>우이령 숲속문화마을 힐링데크로드 조성사업 특정기술(공법) 선정 접수결과 및 2차 평가 서류 제출안내 공고</t>
+  </si>
+  <si>
+    <t>「탄천수계 한강본류 차집관로 보수공사 2차(장기계속)」 신기술·특허공법 선정(단면보수/물막이 및 물돌리기)제안서 제출 안내 공고</t>
+  </si>
+  <si>
+    <t>「광주광역시 고령친화산업지원센터 운영」민간위탁 수탁기관 선정심의 결과 공고</t>
+  </si>
+  <si>
+    <t>https://www.ulsan.go.kr/u/rep/transfer/notice/list.ulsan?mId=001004002000000000&amp;curPage=2</t>
+  </si>
+  <si>
+    <t>A025</t>
+  </si>
+  <si>
+    <t>경기고시공고</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=5</t>
+  </si>
+  <si>
+    <t>2025년 세계유산 남한산성 활용사업 제안서 평가위원 인력풀(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>A029</t>
+  </si>
+  <si>
+    <t>전북고시공고</t>
+  </si>
+  <si>
+    <t>A059</t>
+  </si>
+  <si>
+    <t>경기도_안성시</t>
+  </si>
+  <si>
+    <t>https://www.anseong.go.kr/portal/saeol/gosiList.do?mId=0501040000&amp;token=1717572030185</t>
+  </si>
+  <si>
+    <t>「2025 동아시아문화도시 안성 기획・운영 대행 용역」 제안서 평가위원 후보자 모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.yeoju.go.kr/www/selectEminwonList.do?key=413&amp;pageIndex=3</t>
+  </si>
+  <si>
+    <t>A075</t>
+  </si>
+  <si>
+    <t>강원도_강릉시</t>
+  </si>
+  <si>
+    <t>https://www.gn.go.kr/www/selectGosiNttList.do?key=263&amp;searchGosiSe=01,04,06&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>강릉시 세입포상금지급 심의위원회 위원 공개모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.hongcheon.go.kr/www/selectEminwonList.do?key=278&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>A092</t>
+  </si>
+  <si>
+    <t>강원도_횡성군</t>
+  </si>
+  <si>
+    <t>https://www.hsg.go.kr/www/selectBbsNttList.do?bbsNo=65&amp;key=821&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>「횡성 이모빌리티 교보재·교육장 관리위탁」 제안서 평가위원（후보자） 모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.jecheon.go.kr/www/selectBbsNttList.do?bbsNo=18&amp;key=5233&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=4</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=5</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=6</t>
+  </si>
+  <si>
+    <t>A103</t>
+  </si>
+  <si>
+    <t>충청도_옥천군</t>
+  </si>
+  <si>
+    <t>https://www.oc.go.kr/www/selectBbsNttList.do?bbsNo=40&amp;key=236&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>제23회 옥천묘목축제 행사대행 용역 제안서 평가결과 공개새글</t>
+  </si>
+  <si>
+    <t>위험교량(상장리737-9번지) 재가설공사 교량 말뚝기초 신기술특허 공법 선정을 위한 기술제안서 제출 안내 공고</t>
+  </si>
+  <si>
+    <t>A137</t>
+  </si>
+  <si>
+    <t>전라도_나주시</t>
+  </si>
+  <si>
+    <t>https://www.naju.go.kr/www/administration/notice/legislation?page=1</t>
+  </si>
+  <si>
+    <t>「나주시 마을(공공)하수처리시설 운영 관리대행 용역」제안서평가 결과 공고새로운글</t>
+  </si>
+  <si>
+    <t>https://www.yeosu.go.kr/www/govt/news/notify?page=2</t>
+  </si>
+  <si>
+    <t>A186</t>
+  </si>
+  <si>
+    <t>경상도_거제시</t>
+  </si>
+  <si>
+    <t>https://www.geoje.go.kr/index.geoje?menuCd=DOM_000008902001002001&amp;listRow=90</t>
+  </si>
+  <si>
+    <t>거제시 공공급식지원 심의위원회 위원 모집공고</t>
+  </si>
+  <si>
+    <t>https://www.gimhae.go.kr/03360/00023/00029.web?&amp;cpage=2</t>
+  </si>
+  <si>
+    <t>A189</t>
+  </si>
+  <si>
+    <t>경상도_사천시</t>
+  </si>
+  <si>
+    <t>https://www.sacheon.go.kr/news/00009/00014.web?cpage=1</t>
+  </si>
+  <si>
+    <t>[사천시 공고 제2025-43호]『상평지구(무고천) 일반하천 정비사업』 교량 특정 공법(신기술, 특허)선정을 위한 공법제안서 제출 안내 공고새 글</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -545,6 +744,10 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -575,7 +778,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -585,6 +788,15 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1929,71 +2141,1306 @@
         <v>45664.62238425926</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F58" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E59" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E60" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F60" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E61" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F61" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E62" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E63" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F63" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F64" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F65" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F66" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F67" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E68" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F68" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F69" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F70" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E71" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F71" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E72" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F72" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F73" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F74" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F75" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E76" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F76" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E77" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F77" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F78" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E79" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F79" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E80" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F80" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E81" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F81" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E82" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F82" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E83" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F83" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E84" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F84" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F85" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E86" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F86" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E87" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F87" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E88" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F88" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E89" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F89" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E90" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F90" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E91" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F91" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E92" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F92" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E93" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F93" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E94" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F94" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E95" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F95" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E96" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F96" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E97" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F97" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E98" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F98" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E99" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F99" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E100" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F100" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E101" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F101" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E102" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F102" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E103" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F103" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E104" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F104" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E105" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F105" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E106" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F106" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E107" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F107" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E108" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F108" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E109" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F109" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E110" s="7">
+        <v>45665.0</v>
+      </c>
+      <c r="F110" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E111" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F111" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E112" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F112" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E113" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F113" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E114" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F114" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E115" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F115" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E116" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F116" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E117" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F117" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E118" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F118" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E119" s="7">
+        <v>45664.0</v>
+      </c>
+      <c r="F119" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E120" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F120" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E121" s="7">
+        <v>45663.0</v>
+      </c>
+      <c r="F121" s="7">
+        <v>45665.02006944444</v>
+      </c>
+    </row>
     <row r="122" ht="15.75" customHeight="1"/>
     <row r="123" ht="15.75" customHeight="1"/>
     <row r="124" ht="15.75" customHeight="1"/>
@@ -2874,9 +4321,76 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C57"/>
+    <hyperlink r:id="rId2" ref="C58"/>
+    <hyperlink r:id="rId3" ref="C59"/>
+    <hyperlink r:id="rId4" ref="C60"/>
+    <hyperlink r:id="rId5" ref="C61"/>
+    <hyperlink r:id="rId6" location="list/1" ref="C62"/>
+    <hyperlink r:id="rId7" location="list/1" ref="C63"/>
+    <hyperlink r:id="rId8" location="list/1" ref="C64"/>
+    <hyperlink r:id="rId9" ref="C65"/>
+    <hyperlink r:id="rId10" ref="C66"/>
+    <hyperlink r:id="rId11" ref="C67"/>
+    <hyperlink r:id="rId12" ref="C68"/>
+    <hyperlink r:id="rId13" ref="C69"/>
+    <hyperlink r:id="rId14" ref="C70"/>
+    <hyperlink r:id="rId15" ref="C71"/>
+    <hyperlink r:id="rId16" location="page=5" ref="C72"/>
+    <hyperlink r:id="rId17" ref="C73"/>
+    <hyperlink r:id="rId18" ref="C74"/>
+    <hyperlink r:id="rId19" ref="C75"/>
+    <hyperlink r:id="rId20" ref="C76"/>
+    <hyperlink r:id="rId21" ref="C77"/>
+    <hyperlink r:id="rId22" ref="C78"/>
+    <hyperlink r:id="rId23" ref="C79"/>
+    <hyperlink r:id="rId24" ref="C80"/>
+    <hyperlink r:id="rId25" ref="C81"/>
+    <hyperlink r:id="rId26" ref="C82"/>
+    <hyperlink r:id="rId27" ref="C83"/>
+    <hyperlink r:id="rId28" ref="C84"/>
+    <hyperlink r:id="rId29" ref="C85"/>
+    <hyperlink r:id="rId30" ref="C86"/>
+    <hyperlink r:id="rId31" ref="C87"/>
+    <hyperlink r:id="rId32" ref="C88"/>
+    <hyperlink r:id="rId33" ref="C89"/>
+    <hyperlink r:id="rId34" ref="C90"/>
+    <hyperlink r:id="rId35" ref="C91"/>
+    <hyperlink r:id="rId36" ref="C92"/>
+    <hyperlink r:id="rId37" ref="C93"/>
+    <hyperlink r:id="rId38" ref="C94"/>
+    <hyperlink r:id="rId39" ref="C95"/>
+    <hyperlink r:id="rId40" ref="C96"/>
+    <hyperlink r:id="rId41" ref="C97"/>
+    <hyperlink r:id="rId42" ref="C98"/>
+    <hyperlink r:id="rId43" ref="C99"/>
+    <hyperlink r:id="rId44" ref="C100"/>
+    <hyperlink r:id="rId45" ref="C101"/>
+    <hyperlink r:id="rId46" ref="C102"/>
+    <hyperlink r:id="rId47" ref="C103"/>
+    <hyperlink r:id="rId48" ref="C104"/>
+    <hyperlink r:id="rId49" ref="C105"/>
+    <hyperlink r:id="rId50" ref="C106"/>
+    <hyperlink r:id="rId51" ref="C107"/>
+    <hyperlink r:id="rId52" ref="C108"/>
+    <hyperlink r:id="rId53" ref="C109"/>
+    <hyperlink r:id="rId54" ref="C110"/>
+    <hyperlink r:id="rId55" ref="C111"/>
+    <hyperlink r:id="rId56" ref="C112"/>
+    <hyperlink r:id="rId57" ref="C113"/>
+    <hyperlink r:id="rId58" ref="C114"/>
+    <hyperlink r:id="rId59" ref="C115"/>
+    <hyperlink r:id="rId60" ref="C116"/>
+    <hyperlink r:id="rId61" ref="C117"/>
+    <hyperlink r:id="rId62" ref="C118"/>
+    <hyperlink r:id="rId63" ref="C119"/>
+    <hyperlink r:id="rId64" ref="C120"/>
+    <hyperlink r:id="rId65" ref="C121"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId66"/>
 </worksheet>
 </file>